--- a/최종/Requirement_List.xlsx
+++ b/최종/Requirement_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\소공\과제 2\c135180_변보경\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB373F32-E799-4662-A0DA-68849DECCC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7893E324-DC0C-4D3E-822C-53666C2E91D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D7782EDE-5287-4B5C-A1A9-6767F19B4F5E}"/>
   </bookViews>
